--- a/imageCreationExcel/back/darkyobi/darkyobi_9.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_9.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.986581983616701</v>
+        <v>0.8595109566981636</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.058937834101315</v>
+        <v>0.9601239487786355</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.93725197960058</v>
+        <v>21.71533109246542</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_sharpness0.99_contrast1.1_equalization13.0.jpg</t>
+          <t>1_1_contrast0.86_sharpness0.96_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7308005993803977</v>
+        <v>13.02491966832234</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9377486819711407</v>
+        <v>0.8192342184161916</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>21.83188025115818</v>
+        <v>0.9738521943997211</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_T_gamma0.73_sharpness0.94_equalization22.0.jpg</t>
+          <t>2_1_brightness13.0_contrast0.82_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.649861203798876</v>
+        <v>15.82124632097136</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.082985463803464</v>
+        <v>0.7829948471300625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.0906330578136274</v>
+        <v>1.022129823650404</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_C_gamma0.65_contrast1.1_sharpness0.091.jpg</t>
+          <t>3_P_brightness16.0_gamma0.78_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8736590294963982</v>
+        <v>0.6756950390894041</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.4692108661333643</v>
+        <v>0.00913741566141002</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.045884539147119</v>
+        <v>1.059458066825338</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_gamma0.87_sharpness0.47_brightness3.0.jpg</t>
+          <t>4_E_gamma0.68_sharpness0.0091_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8359375067537216</v>
+        <v>0.5372347212014349</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24.00128596247858</v>
+        <v>0.8873508124107827</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.719328484064323</v>
+        <v>18.30190671648871</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_P_contrast0.84_brightness24.0_gamma0.72.jpg</t>
+          <t>5_7_sharpness0.54_contrast0.89_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6585995272488974</v>
+        <v>0.9362810545209981</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9035828864899179</v>
+        <v>0.5575562718877305</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.844166036393523</v>
+        <v>22.40789754232247</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_gamma0.66_contrast0.9_equalization6.8.jpg</t>
+          <t>6_S_sharpness0.94_gamma0.56_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5981508606134984</v>
+        <v>0.9370877463484235</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8446949755586087</v>
+        <v>0.5198676187396996</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15.89077271959665</v>
+        <v>16.49062161328725</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_C_sharpness0.6_gamma0.84_brightness16.0.jpg</t>
+          <t>7_8_sharpness0.94_gamma0.52_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.527185386465636</v>
+        <v>0.05039579558148144</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8900380711067525</v>
+        <v>0.781160489642641</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8684712448980406</v>
+        <v>12.16141938000216</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_brightness8.5_contrast0.89_gamma0.87.jpg</t>
+          <t>8_3_sharpness0.05_gamma0.78_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.096068101756499</v>
+        <v>0.5500459192764179</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7220076985300141</v>
+        <v>0.5560017309856605</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.751279232032757</v>
+        <v>27.55908473615896</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_contrast1.1_gamma0.72_equalization5.8.jpg</t>
+          <t>9_S_gamma0.55_sharpness0.56_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.17901760478682</v>
+        <v>0.9892567812240911</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5155864118725428</v>
+        <v>0.849382942594601</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>31.21297905018928</v>
+        <v>23.93454428561984</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_contrast1.2_gamma0.52_equalization31.0.jpg</t>
+          <t>10_T_sharpness0.99_gamma0.85_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -911,34 +911,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8803985619792641</v>
+        <v>0.3531730739563276</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4775557793316191</v>
+        <v>1.097639681801875</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.36725104691096</v>
+        <v>0.9218005582755229</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_contrast0.88_sharpness0.48_equalization12.0.jpg</t>
+          <t>11_T_sharpness0.35_contrast1.1_gamma0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.739530578632188</v>
+        <v>1.178463769266876</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5051368355391722</v>
+        <v>0.5858529977941586</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.067113256661205</v>
+        <v>0.7509064445519578</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_brightness1.7_gamma0.51_contrast1.1.jpg</t>
+          <t>12_S_contrast1.2_gamma0.59_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -990,24 +990,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5135052111314696</v>
+        <v>1.174034665914089</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.4309660276682055</v>
+        <v>0.8490003144639637</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.194589867194127</v>
+        <v>25.6774588054982</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_gamma0.51_sharpness0.43_equalization6.2.jpg</t>
+          <t>13_E_contrast1.2_gamma0.85_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8417865097442407</v>
+        <v>1.148985777927344</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24.94489581105388</v>
+        <v>0.6973367726317395</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8322177473755712</v>
+        <v>4.031105075153095</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_T_gamma0.84_brightness25.0_contrast0.83.jpg</t>
+          <t>14_S_contrast1.1_gamma0.7_equalization4.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1079,11 +1079,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.37058193447843</v>
+        <v>0.7641121836127022</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8791314743853785</v>
+        <v>0.6422797266226304</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.999750270849319</v>
+        <v>1.166103190156172</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_brightness13.0_gamma0.88_sharpness1.0.jpg</t>
+          <t>15_E_sharpness0.76_gamma0.64_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9697526712565901</v>
+        <v>1.096606000000808</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8187941601581998</v>
+        <v>11.75361941801763</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8.678552949915007</v>
+        <v>0.8085450806083831</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_T_gamma0.97_sharpness0.82_equalization8.7.jpg</t>
+          <t>16_P_gamma1.1_brightness12.0_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,15 +1167,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5925505949041574</v>
+        <v>1.025132903906214</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.041097168850591</v>
+        <v>3.240110618278417</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.2117154816717829</v>
+        <v>0.8119034039365781</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_gamma0.59_contrast1.0_sharpness0.21.jpg</t>
+          <t>17_3_gamma1.0_brightness3.2_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11.06011944423019</v>
+        <v>15.23143797658209</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7767387130800878</v>
+        <v>0.5463826540882022</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.1537746528191842</v>
+        <v>0.2041346287490049</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_brightness11.0_gamma0.78_sharpness0.15.jpg</t>
+          <t>18_I_brightness15.0_gamma0.55_sharpness0.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.116848973626783</v>
+        <v>19.80034965063304</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8.418217959101776</v>
+        <v>0.1280367328346267</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.6443816548807351</v>
+        <v>1.173211339932237</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_contrast1.1_brightness8.4_gamma0.64.jpg</t>
+          <t>19_0_brightness20.0_sharpness0.13_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.05501063951233298</v>
+        <v>0.9299825963010304</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>14.97727223679329</v>
+        <v>1.005884031750301</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.072960020153437</v>
+        <v>31.30336990203566</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_P_sharpness0.055_brightness15.0_contrast1.1.jpg</t>
+          <t>20_1_contrast0.93_gamma1.0_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8438241945819828</v>
+        <v>19.51427487916857</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9976184563531542</v>
+        <v>0.06263302776847079</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>26.26351846103741</v>
+        <v>0.8645901447298942</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_1_sharpness0.84_contrast1.0_equalization26.0.jpg</t>
+          <t>21_9_brightness20.0_sharpness0.063_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5479031059511995</v>
+        <v>1.11807434114948</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6951745424798105</v>
+        <v>0.8474435286960686</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.178558079563942</v>
+        <v>9.189917753944661</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_S_gamma0.55_sharpness0.7_contrast1.2.jpg</t>
+          <t>22_7_contrast1.1_gamma0.85_brightness9.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9790451181331398</v>
+        <v>1.059890075378101</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.136704742056151</v>
+        <v>10.45736748383789</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>26.83352233691269</v>
+        <v>0.7708519276260848</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_sharpness0.98_contrast1.1_equalization27.0.jpg</t>
+          <t>23_3_contrast1.1_brightness10.0_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.191605644663877</v>
+        <v>1.194535100356861</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7015003252398372</v>
+        <v>0.9699927414569054</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12.64545931220543</v>
+        <v>16.45539256217086</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_contrast1.2_sharpness0.7_equalization13.0.jpg</t>
+          <t>24_B_contrast1.2_sharpness0.97_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5.941570632212807</v>
+        <v>0.5810368604863076</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.551904670959157</v>
+        <v>0.9884818727891836</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.6899508113681677</v>
+        <v>29.8203595619757</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_S_brightness5.9_gamma0.55_sharpness0.69.jpg</t>
+          <t>25_8_sharpness0.58_contrast0.99_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7528804842441137</v>
+        <v>21.26505912278367</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.568225463587703</v>
+        <v>0.9736722617201116</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.001130530698798</v>
+        <v>0.7584219010030581</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_gamma0.75_brightness3.6_contrast1.0.jpg</t>
+          <t>26_T_brightness21.0_contrast0.97_gamma0.76.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,16 +1578,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.111989924278056</v>
+        <v>0.7499752992244855</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7968968229040537</v>
+        <v>0.5115942930600698</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>29.39848817389608</v>
+        <v>5.528166727755859</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_contrast1.1_sharpness0.8_equalization29.0.jpg</t>
+          <t>27_C_gamma0.75_sharpness0.51_brightness5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.419593008982505</v>
+        <v>0.9654010345336066</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.058394404098233</v>
+        <v>22.81827971078838</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>15.80012930512371</v>
+        <v>0.8784590085781196</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_sharpness0.42_gamma1.1_equalization16.0.jpg</t>
+          <t>28_P_gamma0.97_brightness23.0_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3707586749660563</v>
+        <v>13.15415030949485</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.161105852522293</v>
+        <v>1.0911503522484</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>28.5601463613277</v>
+        <v>0.935126187949979</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_sharpness0.37_contrast1.2_equalization29.0.jpg</t>
+          <t>29_9_brightness13.0_contrast1.1_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1709,34 +1709,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9815061113014583</v>
+        <v>1.136556660549261</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.180497148311475</v>
+        <v>0.6089780164342724</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.9328206743902742</v>
+        <v>19.25814110921366</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_gamma0.98_contrast1.2_sharpness0.93.jpg</t>
+          <t>30_8_contrast1.1_sharpness0.61_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7297936449239851</v>
+        <v>0.7877682426207238</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.100683814222463</v>
+        <v>0.5411473667026628</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4.5757034765721</v>
+        <v>17.19321889580382</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_sharpness0.73_contrast1.1_equalization4.6.jpg</t>
+          <t>31_1_sharpness0.79_gamma0.54_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2740475153425965</v>
+        <v>1.049509100500026</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5903177346694071</v>
+        <v>0.8424418719553231</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>25.09255174916109</v>
+        <v>0.776619482237518</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_sharpness0.27_gamma0.59_equalization25.0.jpg</t>
+          <t>32_P_gamma1.0_contrast0.84_sharpness0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9205729004118082</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>5.723282811454341</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F34" t="n">
-        <v>0.5747823362720688</v>
+        <v>12.31840331733587</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.9603442442596715</v>
+        <v>0.002372502660979103</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_2_brightness5.7_gamma0.57_contrast0.96.jpg</t>
+          <t>33_B_gamma0.92_brightness12.0_sharpness0.0024.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.02033918891436</v>
+        <v>0.6635045495939202</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7728850658541477</v>
+        <v>1.076706285288098</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12.83318059744874</v>
+        <v>1.147479480514231</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_contrast1.0_gamma0.77_equalization13.0.jpg</t>
+          <t>34_9_sharpness0.66_gamma1.1_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8903792554177292</v>
+        <v>0.9904401025120173</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8880083077607086</v>
+        <v>1.010553427207936</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.749153674371597</v>
+        <v>27.41697810107569</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_gamma0.89_sharpness0.89_equalization7.7.jpg</t>
+          <t>35_P_gamma0.99_contrast1.0_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.091470218253879</v>
+        <v>0.881387277091195</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6624893714550061</v>
+        <v>0.8136388661201296</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.579754184982122</v>
+        <v>26.16129548416387</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_contrast1.1_sharpness0.66_equalization5.6.jpg</t>
+          <t>36_8_gamma0.88_contrast0.81_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2007,30 +2007,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5098302699612579</v>
+        <v>0.7533250213602103</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>21.52128332001013</v>
+        <v>0.8877613319053401</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.1898623434572959</v>
+        <v>10.17969525529315</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_gamma0.51_brightness22.0_sharpness0.19.jpg</t>
+          <t>37_1_gamma0.75_contrast0.89_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6678030608481422</v>
+        <v>0.8590340374164542</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8778867208178179</v>
+        <v>0.807314956357035</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>18.57449348890745</v>
+        <v>15.55476136173706</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_P_gamma0.67_sharpness0.88_equalization19.0.jpg</t>
+          <t>38_0_sharpness0.86_contrast0.81_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7004292691842774</v>
+        <v>1.162736033081912</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.037736459729627</v>
+        <v>1.003342589734001</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.006841044835706</v>
+        <v>16.29915892760924</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_sharpness0.7_contrast1.0_equalization5.0.jpg</t>
+          <t>39_2_contrast1.2_gamma1.0_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5343313873753067</v>
+        <v>1.059671986323794</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5412853289857452</v>
+        <v>0.7444676636537118</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>29.66670420198679</v>
+        <v>0.06758322658718563</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_sharpness0.53_gamma0.54_equalization30.0.jpg</t>
+          <t>40_2_contrast1.1_gamma0.74_sharpness0.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6367453329351915</v>
+        <v>0.4029201077418412</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7743787478781271</v>
+        <v>0.5790702182107933</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>24.17732237158792</v>
+        <v>16.97229345059435</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_gamma0.64_sharpness0.77_brightness24.0.jpg</t>
+          <t>41_T_sharpness0.4_gamma0.58_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9096882113654081</v>
+        <v>1.055608353533319</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25.87205897472544</v>
+        <v>0.648245113386362</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.8117345426248636</v>
+        <v>5.617632182008323</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_gamma0.91_brightness26.0_contrast0.81.jpg</t>
+          <t>42_S_contrast1.1_gamma0.65_equalization5.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.050329086191336</v>
+        <v>0.8922746330095819</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8623901076143046</v>
+        <v>1.046680089144696</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>28.26127753781254</v>
+        <v>31.71328834815726</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_2_contrast1.1_sharpness0.86_equalization28.0.jpg</t>
+          <t>43_P_gamma0.89_contrast1.0_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6737199183792959</v>
+        <v>0.802965027887128</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9168707383654605</v>
+        <v>0.0180250592257204</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>24.61069705482609</v>
+        <v>23.94166967006832</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_gamma0.67_contrast0.92_equalization25.0.jpg</t>
+          <t>44_7_gamma0.8_sharpness0.018_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.000457773470513</v>
+        <v>5.476107325269584</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8916527390576732</v>
+        <v>0.8431360888202954</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>14.40788069889619</v>
+        <v>0.6686847034854495</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_contrast1.0_sharpness0.89_equalization14.0.jpg</t>
+          <t>45_T_brightness5.5_contrast0.84_sharpness0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.177482042189782</v>
+        <v>0.8313755024358227</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.008384533725229959</v>
+        <v>0.9965990044463278</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>20.38418423705227</v>
+        <v>15.99832254696205</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_contrast1.2_sharpness0.0084_equalization20.0.jpg</t>
+          <t>46_1_sharpness0.83_contrast1.0_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.78432616344591</v>
+        <v>0.5019039461306645</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8669655803380975</v>
+        <v>1.197006284253967</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>30.20094184290409</v>
+        <v>0.1121446364523123</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_T_gamma0.78_contrast0.87_equalization30.0.jpg</t>
+          <t>47_P_gamma0.5_contrast1.2_sharpness0.11.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9999749071799153</v>
+        <v>0.8959580803777237</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.04523536682556706</v>
+        <v>0.1511727193588928</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>27.42286370587734</v>
+        <v>4.118458966025031</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_gamma1.0_sharpness0.045_equalization27.0.jpg</t>
+          <t>48_C_contrast0.9_sharpness0.15_equalization4.1.jpg</t>
         </is>
       </c>
     </row>
